--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_19-30.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_19-30.xlsx
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
     <t>E-MOX 500MG 16 CAPS</t>
@@ -1947,7 +1950,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1967,17 +1970,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1993,17 +1996,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2019,17 +2022,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2045,17 +2048,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2071,17 +2074,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2097,13 +2100,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2123,13 +2126,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2149,17 +2152,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>30.670000000000002</v>
+        <v>34</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2175,17 +2178,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2201,17 +2204,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2227,17 +2230,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2253,17 +2256,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2279,13 +2282,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2305,13 +2308,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>-290</v>
+        <v>39</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2331,13 +2334,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2357,13 +2360,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2383,13 +2386,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2409,13 +2412,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2441,11 +2444,11 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>72.5</v>
+        <v>55</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2461,17 +2464,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>27.329999999999998</v>
+        <v>72.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2479,7 +2482,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2487,17 +2490,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2513,13 +2516,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2545,7 +2548,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2565,17 +2568,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2591,17 +2594,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2617,17 +2620,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2643,17 +2646,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2669,17 +2672,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2687,7 +2690,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2695,17 +2698,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2721,17 +2724,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>76.439999999999998</v>
+        <v>28</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2747,17 +2750,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>270</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2773,17 +2776,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2791,7 +2794,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2799,17 +2802,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2825,17 +2828,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2851,17 +2854,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2877,17 +2880,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2909,11 +2912,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2929,13 +2932,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2961,11 +2964,11 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2981,17 +2984,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3007,13 +3010,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3033,13 +3036,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3051,7 +3054,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3059,17 +3062,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3085,17 +3088,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>27</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3111,13 +3114,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>-185</v>
+        <v>27</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3137,17 +3140,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3163,17 +3166,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3181,7 +3184,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3189,17 +3192,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3221,7 +3224,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3241,13 +3244,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3273,11 +3276,11 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3293,17 +3296,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3319,13 +3322,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3345,17 +3348,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3371,13 +3374,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3397,13 +3400,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3423,17 +3426,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3441,7 +3444,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3449,17 +3452,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3467,7 +3470,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3475,17 +3478,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>224</v>
+        <v>12.5</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3501,17 +3504,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3527,13 +3530,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3553,7 +3556,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -3579,13 +3582,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3597,7 +3600,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3605,13 +3608,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3631,17 +3634,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3649,7 +3652,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3657,17 +3660,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3675,7 +3678,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3683,17 +3686,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>9</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3709,13 +3712,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3735,13 +3738,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3761,13 +3764,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3779,7 +3782,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3787,13 +3790,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3813,13 +3816,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3839,13 +3842,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3865,13 +3868,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>30</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3883,7 +3886,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3891,51 +3894,77 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" ht="24.75" customHeight="1">
+      <c r="A114" s="6">
+        <v>111</v>
+      </c>
+      <c t="s" r="B114" s="7">
+        <v>152</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c t="s" r="H114" s="8">
+        <v>151</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9">
+        <v>70</v>
+      </c>
+      <c r="M114" s="9"/>
+      <c t="s" r="N114" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="K114" s="10">
-        <v>5558.4099999999999</v>
-      </c>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="11">
-        <v>152</v>
-      </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c t="s" r="F115" s="12">
+    <row r="115" ht="26.25" customHeight="1">
+      <c r="K115" s="10">
+        <v>5582.4099999999999</v>
+      </c>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="11">
         <v>153</v>
       </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="13"/>
-      <c t="s" r="I115" s="14">
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c t="s" r="F116" s="12">
         <v>154</v>
       </c>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="14"/>
-      <c r="N115" s="14"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="13"/>
+      <c t="s" r="I116" s="14">
+        <v>155</v>
+      </c>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="341">
+  <mergeCells count="344">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4273,10 +4302,13 @@
     <mergeCell ref="B113:G113"/>
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
-    <mergeCell ref="K114:N114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="I115:N115"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="K115:N115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="I116:N116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
